--- a/Cartas.xlsx
+++ b/Cartas.xlsx
@@ -309,7 +309,7 @@
     <t>Activa un Aumento al azar desde la mano.</t>
   </si>
   <si>
-    <t>Se intercambia por una carta de unidad propia aleatoria en el campo.</t>
+    <t>Se intercambia por una carta de unidad propia a seleccionar.</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -611,6 +611,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="52" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="23.1" x14ac:dyDescent="0.85"/>
@@ -3285,7 +3288,7 @@
       <c r="E36" s="23">
         <v>0</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="65" t="s">
         <v>96</v>
       </c>
       <c r="G36" s="23" t="s">
